--- a/DATA/IsoData/SERCIsoData.xlsx
+++ b/DATA/IsoData/SERCIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">84f7b67c-beea-47c6-a81e-8d1e602130d5</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9c41f2b7-2595-4a6e-b324-c86dfd576580</t>
   </si>
   <si>
     <t xml:space="preserve">SERC.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161908Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6edc5d30-2419-4bd8-aa9c-43ea948e55b7</t>
+    <t xml:space="preserve">20210111T191152Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b24310e1-dcbc-473f-add4-bdef9cc05a8e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SERC.20190520.1130</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000033878</t>
   </si>
   <si>
-    <t xml:space="preserve">a752234d-2ab0-4658-8e6a-16e3db60d9ea</t>
+    <t xml:space="preserve">0184ed0a-3337-4fea-bd29-994c28f7fe20</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SERC.20190529.1310</t>
@@ -113,7 +119,7 @@
     <t xml:space="preserve">A00000072212</t>
   </si>
   <si>
-    <t xml:space="preserve">ef77648c-e27a-4224-b8ee-e8070b977ee2</t>
+    <t xml:space="preserve">d88b55dd-8691-40db-9bd7-5f2423ec2717</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SERC.20190624.1232</t>
@@ -125,10 +131,10 @@
     <t xml:space="preserve">A00000072226</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162100Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c77af829-09ae-46e2-b929-fb4da177e2de</t>
+    <t xml:space="preserve">20210111T173644Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d87e7433-eafe-4afb-8f79-3c9288f92c2a</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SERC.20190709.1259</t>
@@ -140,10 +146,10 @@
     <t xml:space="preserve">A00000072314</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162414Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8ee63e52-6d13-4f8d-8e6a-a951e6d43220</t>
+    <t xml:space="preserve">20210111T172748Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f419bd02-7cb7-4cbc-8cb5-ffe9d4458bd1</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SERC.20190725.1130</t>
@@ -155,7 +161,7 @@
     <t xml:space="preserve">A00000072316</t>
   </si>
   <si>
-    <t xml:space="preserve">3293f552-423a-4c09-9cb5-04cafbb8a380</t>
+    <t xml:space="preserve">0a035079-49a6-4e3b-a7e6-7de68fd22aaf</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SERC.20190806.1159</t>
@@ -167,10 +173,10 @@
     <t xml:space="preserve">A00000072301</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163137Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddedf838-a4ff-4f30-b781-16629f980622</t>
+    <t xml:space="preserve">20210111T180639Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e35131f-c4f5-44ff-8726-9f9834646eb1</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SERC.20190820.1230</t>
@@ -182,7 +188,7 @@
     <t xml:space="preserve">A00000072300</t>
   </si>
   <si>
-    <t xml:space="preserve">3a057041-18e4-43da-a9ab-395fde403b1d</t>
+    <t xml:space="preserve">f605b6fe-d69f-46f5-b4d3-98c2c1d5abb7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SERC.20190917.1430</t>
@@ -194,10 +200,10 @@
     <t xml:space="preserve">A00000072307</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161944Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69558ebb-d7d5-4e07-afbf-a8802e447f57</t>
+    <t xml:space="preserve">20210111T181416Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aace3bb5-00be-496f-bed3-5d2ae77449d9</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SERC.20191015.1342</t>
@@ -209,10 +215,10 @@
     <t xml:space="preserve">A00000072292</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T163106Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ada949f3-ba6c-48b2-8f8a-723b27367e3e</t>
+    <t xml:space="preserve">20210111T163956Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93d196ff-1beb-45ab-ae7e-cff5d8a858da</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SERC.20191029.1130</t>
@@ -224,7 +230,7 @@
     <t xml:space="preserve">A00000072315</t>
   </si>
   <si>
-    <t xml:space="preserve">0eb90074-d70f-4c74-9591-3a20cbc98cf9</t>
+    <t xml:space="preserve">b8612ec3-838e-4d8c-a0c0-2c67870a42fb</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SERC.20191113.1200</t>
@@ -236,10 +242,10 @@
     <t xml:space="preserve">A00000072191</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162751Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0930eba1-1032-4b02-afd6-060d22aedadd</t>
+    <t xml:space="preserve">20210111T182200Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b58d5e33-badf-4109-a02f-00fc6dc6c7c3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SERC.20191126.1150</t>
@@ -251,7 +257,7 @@
     <t xml:space="preserve">A00000072192</t>
   </si>
   <si>
-    <t xml:space="preserve">3b8876a6-56bf-40d5-8946-6559af7d115a</t>
+    <t xml:space="preserve">b84ab28b-317c-46d4-bc89-ab378cbdf561</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SERC.20191212.1200</t>
@@ -263,10 +269,10 @@
     <t xml:space="preserve">A00000072189</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162814Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">042825fe-64d6-4dd0-a3c1-852741baf9c6</t>
+    <t xml:space="preserve">20210111T163906Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d6af3360-57d4-4f42-9995-f8af1d531aa3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SERC.20200109.1300</t>
@@ -278,10 +284,13 @@
     <t xml:space="preserve">A00000072216</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161511Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7bac70f0-84da-4f3d-9c0a-97712aca0935</t>
+    <t xml:space="preserve">20210111T190710Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203c2e0a-2cdb-48c9-9024-b7ece45e11ad</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SERC.20200130.1200</t>
@@ -291,6 +300,33 @@
   </si>
   <si>
     <t xml:space="preserve">A00000072222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab9a1d73-8fae-4fe9-96fa-db7f8005ba28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SERC.20200213.1412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SERC.20200213.1412.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000072224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T191832Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b0b89b0-1f75-448b-b7c1-88be92705156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SERC.20200218.1130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SERC.20200218.1130.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000072221</t>
   </si>
 </sst>
 </file>
@@ -628,7 +664,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -682,23 +718,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43572.6993055556</v>
@@ -719,35 +758,38 @@
         <v>0.254</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43636.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43591.6666666667</v>
@@ -768,35 +810,38 @@
         <v>0.146</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43673.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43600.6458333333</v>
@@ -817,35 +862,38 @@
         <v>0.133</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43673.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43627.6638888889</v>
@@ -866,35 +914,38 @@
         <v>0.107</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43673.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43640.6944444444</v>
@@ -915,35 +966,38 @@
         <v>0.055</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43655.7083333333</v>
@@ -964,35 +1018,38 @@
         <v>0.201</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43669.6666666667</v>
@@ -1013,35 +1070,38 @@
         <v>0.088</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43683.6666666667</v>
@@ -1062,35 +1122,38 @@
         <v>0.228</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43711.75</v>
@@ -1111,35 +1174,38 @@
         <v>0.28</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43725.7270833333</v>
@@ -1160,35 +1226,38 @@
         <v>0.093</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43753.71875</v>
@@ -1209,35 +1278,38 @@
         <v>0.229</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43767.6458333333</v>
@@ -1258,35 +1330,38 @@
         <v>0.068</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43781.7083333333</v>
@@ -1307,35 +1382,38 @@
         <v>0.394</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43795.7013888889</v>
@@ -1356,35 +1434,38 @@
         <v>0.154</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43810.7083333333</v>
@@ -1405,35 +1486,38 @@
         <v>0.155</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="R16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43839.75</v>
@@ -1454,17 +1538,124 @@
         <v>0.088</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="R17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>43859.7083333333</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>43874.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-8.161</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-61.031</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>43990.75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18" t="s">
+        <v>100</v>
+      </c>
+      <c r="R18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>43872.8</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>43879.6875</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-3.473</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-22.194</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>43990.75</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>100</v>
+      </c>
+      <c r="R19" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
